--- a/tut06/output/2001CE21.xlsx
+++ b/tut06/output/2001CE21.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -558,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -579,7 +581,9 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -644,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +691,9 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -751,7 +757,9 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -772,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -793,7 +801,9 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -858,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -879,7 +889,9 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
